--- a/data/trans_dic/P15E_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8045440504046542</v>
+        <v>0.804544050404654</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.6216520066585219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6777566458922076</v>
+        <v>0.6777566458922077</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2136260202942045</v>
+        <v>0.1873142867047285</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3268147079267559</v>
+        <v>0.3179028799245385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4332576454046054</v>
+        <v>0.4108422146215296</v>
       </c>
     </row>
     <row r="6">
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8602306259729048</v>
+        <v>0.8474022053826696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8870535885621147</v>
+        <v>0.8580550724761252</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.4629940892741881</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6044591101214941</v>
+        <v>0.6044591101214942</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2851057503108137</v>
+        <v>0.2881281794000189</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1366999260398065</v>
+        <v>0.1402532265910164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.309495943309638</v>
+        <v>0.3406049886716686</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8517016794794828</v>
+        <v>0.8551041985880231</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8188244709159889</v>
+        <v>0.8510102614395925</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3978883808907717</v>
+        <v>0.3978883808907718</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.5647124656777641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4979766079770759</v>
+        <v>0.497976607977076</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07666524365051064</v>
+        <v>0.08969970380098451</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2574188053354614</v>
+        <v>0.2562760072110144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2717937104547212</v>
+        <v>0.2699454715398121</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8295723904878006</v>
+        <v>0.8386834452755552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8501940458538269</v>
+        <v>0.8133584627801242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7228474047376939</v>
+        <v>0.7363426934492435</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6306105863899109</v>
+        <v>0.6306105863899107</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.7642730857905882</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6871524418343972</v>
+        <v>0.6871524418343973</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4254031295344933</v>
+        <v>0.4065092112726807</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5602968283562084</v>
+        <v>0.56648996778196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.508826261004651</v>
+        <v>0.5454916313084249</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8109466684399693</v>
+        <v>0.8075219214899821</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9083527873888698</v>
+        <v>0.9124124323047248</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8064992995586709</v>
+        <v>0.8197726061644002</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7116274460274815</v>
+        <v>0.7116274460274816</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8171339134418889</v>
+        <v>0.8171339134418888</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.7951473706306545</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4241884600879051</v>
+        <v>0.4330193581049528</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6962745477505125</v>
+        <v>0.7075116711439805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.675512544119679</v>
+        <v>0.6755186959547426</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9239526002197144</v>
+        <v>0.9265276184463911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9003460105506965</v>
+        <v>0.903941399657017</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8852073872232599</v>
+        <v>0.8765942384901798</v>
       </c>
     </row>
     <row r="19">
@@ -855,10 +855,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.6187998040407039</v>
+        <v>0.6184876144055527</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6187998040407039</v>
+        <v>0.6184876144055527</v>
       </c>
     </row>
     <row r="21">
@@ -870,10 +870,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.8457979756255326</v>
+        <v>0.8423628830199796</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8457979756255326</v>
+        <v>0.8423628830199796</v>
       </c>
     </row>
     <row r="22">
@@ -891,7 +891,7 @@
         <v>0.6438590380778473</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7307085582418169</v>
+        <v>0.7307085582418168</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.7049710909350549</v>
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4871142900604274</v>
+        <v>0.5127123415222249</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6594361683811425</v>
+        <v>0.6578660517741601</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6378121414249399</v>
+        <v>0.6409188224906309</v>
       </c>
     </row>
     <row r="24">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7721473111854463</v>
+        <v>0.7572171970622719</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8021486232435416</v>
+        <v>0.7988899897555701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7649660400331454</v>
+        <v>0.7672878991992369</v>
       </c>
     </row>
     <row r="25">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>671</v>
+        <v>589</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2321</v>
+        <v>2258</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4438</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="7">
@@ -1092,10 +1092,10 @@
         <v>3142</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6109</v>
+        <v>6018</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9087</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1650</v>
+        <v>1667</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3020</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="11">
@@ -1164,10 +1164,10 @@
         <v>5787</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3384</v>
+        <v>3397</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7991</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="12">
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2985</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="15">
@@ -1233,13 +1233,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3644</v>
+        <v>3684</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5602</v>
+        <v>5359</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7938</v>
+        <v>8087</v>
       </c>
     </row>
     <row r="16">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7031</v>
+        <v>6719</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6790</v>
+        <v>6865</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14576</v>
+        <v>15626</v>
       </c>
     </row>
     <row r="19">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13403</v>
+        <v>13347</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11007</v>
+        <v>11057</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23103</v>
+        <v>23483</v>
       </c>
     </row>
     <row r="20">
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2884</v>
+        <v>2944</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17979</v>
+        <v>18269</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>22035</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6281</v>
+        <v>6299</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23249</v>
+        <v>23342</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28875</v>
+        <v>28594</v>
       </c>
     </row>
     <row r="24">
@@ -1431,10 +1431,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>19441</v>
+        <v>19431</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19441</v>
+        <v>19431</v>
       </c>
     </row>
     <row r="27">
@@ -1446,10 +1446,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>26572</v>
+        <v>26465</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26572</v>
+        <v>26465</v>
       </c>
     </row>
     <row r="28">
@@ -1498,13 +1498,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17852</v>
+        <v>18790</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>57384</v>
+        <v>57248</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>78877</v>
+        <v>79261</v>
       </c>
     </row>
     <row r="31">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28298</v>
+        <v>27750</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>69803</v>
+        <v>69519</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>94602</v>
+        <v>94889</v>
       </c>
     </row>
     <row r="32">
